--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A    Octubre    2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A    Octubre    2021.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
   <si>
     <t>REMISION</t>
   </si>
@@ -112,7 +112,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMERCIO   CENTRAL </t>
+  </si>
+  <si>
+    <t>OBRADOR</t>
+  </si>
+  <si>
+    <t>XXXXXXXXXXXX</t>
   </si>
 </sst>
 </file>
@@ -125,7 +134,7 @@
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +278,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -495,7 +512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -630,42 +647,41 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1069,8 +1085,8 @@
   </sheetPr>
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1089,25 +1105,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -1145,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="64" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="15">
@@ -1168,7 +1184,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="65" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="20">
@@ -1190,7 +1206,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="65" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="20"/>
@@ -1208,7 +1224,9 @@
         <v>4</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="19"/>
+      <c r="D7" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E7" s="20"/>
       <c r="F7" s="21"/>
       <c r="G7" s="22"/>
@@ -1224,7 +1242,9 @@
         <v>5</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="59"/>
+      <c r="D8" s="59" t="s">
+        <v>13</v>
+      </c>
       <c r="E8" s="20"/>
       <c r="F8" s="21"/>
       <c r="G8" s="22"/>
@@ -1258,7 +1278,9 @@
         <v>7</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="19"/>
+      <c r="D10" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E10" s="20"/>
       <c r="F10" s="21"/>
       <c r="G10" s="22"/>
@@ -1274,7 +1296,9 @@
         <v>8</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="19"/>
+      <c r="D11" s="19" t="s">
+        <v>13</v>
+      </c>
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
       <c r="G11" s="22"/>
@@ -1284,62 +1308,86 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="12">
+        <v>44489</v>
+      </c>
       <c r="B12" s="13">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C12" s="24"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
+      <c r="D12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="20">
+        <v>4098</v>
+      </c>
       <c r="F12" s="21"/>
       <c r="G12" s="22"/>
       <c r="H12" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="12">
+        <v>44490</v>
+      </c>
       <c r="B13" s="13">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C13" s="25"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
+      <c r="D13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="20">
+        <v>8137</v>
+      </c>
       <c r="F13" s="21"/>
       <c r="G13" s="22"/>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8137</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="12">
+        <v>44490</v>
+      </c>
       <c r="B14" s="13">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C14" s="24"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="20"/>
+      <c r="D14" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="20">
+        <v>19763</v>
+      </c>
       <c r="F14" s="21"/>
       <c r="G14" s="22"/>
       <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>19763</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
+      <c r="A15" s="12">
+        <v>44490</v>
+      </c>
       <c r="B15" s="13">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C15" s="25"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
+      <c r="D15" s="74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="20">
+        <v>0</v>
+      </c>
       <c r="F15" s="21"/>
       <c r="G15" s="22"/>
       <c r="H15" s="18">
@@ -1348,61 +1396,83 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="12">
+        <v>44490</v>
+      </c>
       <c r="B16" s="13">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C16" s="24"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
+      <c r="D16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="20">
+        <v>744</v>
+      </c>
       <c r="F16" s="21"/>
       <c r="G16" s="22"/>
       <c r="H16" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>744</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+      <c r="A17" s="12">
+        <v>44490</v>
+      </c>
       <c r="B17" s="13">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C17" s="25"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
+      <c r="D17" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="20">
+        <v>73655</v>
+      </c>
       <c r="F17" s="21"/>
       <c r="G17" s="22"/>
       <c r="H17" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>73655</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="A18" s="12">
+        <v>44490</v>
+      </c>
       <c r="B18" s="13">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
+      <c r="D18" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="20">
+        <v>114940</v>
+      </c>
       <c r="F18" s="21"/>
       <c r="G18" s="22"/>
       <c r="H18" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>114940</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="12">
+        <v>44490</v>
+      </c>
       <c r="B19" s="13">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C19" s="25"/>
-      <c r="D19" s="19"/>
+      <c r="D19" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
       <c r="G19" s="22"/>
@@ -1412,163 +1482,227 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="A20" s="12">
+        <v>44490</v>
+      </c>
       <c r="B20" s="13">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C20" s="24"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="61"/>
+      <c r="D20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="20">
+        <v>1043</v>
+      </c>
+      <c r="F20" s="21">
+        <v>44491</v>
+      </c>
+      <c r="G20" s="22">
+        <v>1043</v>
+      </c>
       <c r="H20" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="A21" s="12">
+        <v>44490</v>
+      </c>
       <c r="B21" s="13">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C21" s="24"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61"/>
+      <c r="D21" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="20">
+        <v>15830</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15830</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="A22" s="12">
+        <v>44491</v>
+      </c>
       <c r="B22" s="13">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
+      <c r="D22" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="20">
+        <v>28036</v>
+      </c>
       <c r="F22" s="21"/>
       <c r="G22" s="22"/>
       <c r="H22" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28036</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+      <c r="A23" s="12">
+        <v>44491</v>
+      </c>
       <c r="B23" s="13">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="20">
+        <v>136607</v>
+      </c>
       <c r="F23" s="21"/>
       <c r="G23" s="22"/>
       <c r="H23" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>136607</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+      <c r="A24" s="12">
+        <v>44491</v>
+      </c>
       <c r="B24" s="13">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C24" s="24"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
+      <c r="D24" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="20">
+        <v>193754</v>
+      </c>
       <c r="F24" s="21"/>
       <c r="G24" s="22"/>
       <c r="H24" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>193754</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="A25" s="12">
+        <v>44491</v>
+      </c>
       <c r="B25" s="13">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C25" s="24"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
+      <c r="D25" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="20">
+        <v>6555</v>
+      </c>
       <c r="F25" s="21"/>
       <c r="G25" s="22"/>
       <c r="H25" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6555</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="A26" s="12">
+        <v>44492</v>
+      </c>
       <c r="B26" s="13">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C26" s="24"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
+      <c r="D26" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="20">
+        <v>1058</v>
+      </c>
       <c r="F26" s="21"/>
       <c r="G26" s="22"/>
       <c r="H26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="A27" s="12">
+        <v>44493</v>
+      </c>
       <c r="B27" s="13">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C27" s="24"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
+      <c r="D27" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="20">
+        <v>4129</v>
+      </c>
       <c r="F27" s="21"/>
       <c r="G27" s="22"/>
       <c r="H27" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+      <c r="A28" s="12">
+        <v>44494</v>
+      </c>
       <c r="B28" s="13">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C28" s="24"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
+      <c r="D28" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="20">
+        <v>10539</v>
+      </c>
       <c r="F28" s="21"/>
       <c r="G28" s="22"/>
       <c r="H28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10539</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="A29" s="12">
+        <v>44495</v>
+      </c>
       <c r="B29" s="13">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C29" s="24"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
+      <c r="D29" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="20">
+        <v>1.5</v>
+      </c>
       <c r="F29" s="21"/>
       <c r="G29" s="22"/>
       <c r="H29" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1578,8 +1712,10 @@
         <v>27</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
+      <c r="D30" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="76"/>
       <c r="F30" s="21"/>
       <c r="G30" s="22"/>
       <c r="H30" s="18">
@@ -1588,35 +1724,47 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="A31" s="12">
+        <v>44495</v>
+      </c>
       <c r="B31" s="13">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C31" s="24"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
+      <c r="D31" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="20">
+        <v>2820</v>
+      </c>
       <c r="F31" s="21"/>
       <c r="G31" s="22"/>
       <c r="H31" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+      <c r="A32" s="12">
+        <v>44496</v>
+      </c>
       <c r="B32" s="13">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C32" s="24"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
+      <c r="D32" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="20">
+        <v>1261</v>
+      </c>
       <c r="F32" s="21"/>
       <c r="G32" s="22"/>
       <c r="H32" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2903,10 +3051,10 @@
       <c r="A113" s="23"/>
       <c r="B113" s="13"/>
       <c r="C113" s="24"/>
-      <c r="D113" s="69"/>
-      <c r="E113" s="70"/>
-      <c r="F113" s="71"/>
-      <c r="G113" s="72"/>
+      <c r="D113" s="60"/>
+      <c r="E113" s="61"/>
+      <c r="F113" s="62"/>
+      <c r="G113" s="63"/>
       <c r="H113" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2916,10 +3064,10 @@
       <c r="A114" s="23"/>
       <c r="B114" s="13"/>
       <c r="C114" s="24"/>
-      <c r="D114" s="69"/>
-      <c r="E114" s="70"/>
-      <c r="F114" s="71"/>
-      <c r="G114" s="72"/>
+      <c r="D114" s="60"/>
+      <c r="E114" s="61"/>
+      <c r="F114" s="62"/>
+      <c r="G114" s="63"/>
       <c r="H114" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2929,10 +3077,10 @@
       <c r="A115" s="23"/>
       <c r="B115" s="13"/>
       <c r="C115" s="24"/>
-      <c r="D115" s="69"/>
-      <c r="E115" s="70"/>
-      <c r="F115" s="71"/>
-      <c r="G115" s="72"/>
+      <c r="D115" s="60"/>
+      <c r="E115" s="61"/>
+      <c r="F115" s="62"/>
+      <c r="G115" s="63"/>
       <c r="H115" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2960,16 +3108,16 @@
       <c r="D117" s="2"/>
       <c r="E117" s="39">
         <f>SUM(E4:E116)</f>
-        <v>0</v>
+        <v>622970.5</v>
       </c>
       <c r="F117" s="39"/>
       <c r="G117" s="39">
         <f>SUM(G4:G116)</f>
-        <v>0</v>
+        <v>1043</v>
       </c>
       <c r="H117" s="40">
         <f>SUM(H4:H116)</f>
-        <v>0</v>
+        <v>621927.5</v>
       </c>
       <c r="I117" s="2"/>
     </row>
@@ -3011,12 +3159,12 @@
       <c r="B121" s="37"/>
       <c r="C121" s="38"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="65">
+      <c r="E121" s="70">
         <f>E117-G117</f>
-        <v>0</v>
-      </c>
-      <c r="F121" s="66"/>
-      <c r="G121" s="67"/>
+        <v>621927.5</v>
+      </c>
+      <c r="F121" s="71"/>
+      <c r="G121" s="72"/>
       <c r="I121" s="2"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -3032,11 +3180,11 @@
       <c r="B123" s="37"/>
       <c r="C123" s="38"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="68" t="s">
+      <c r="E123" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F123" s="68"/>
-      <c r="G123" s="68"/>
+      <c r="F123" s="73"/>
+      <c r="G123" s="73"/>
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A    Octubre    2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A    Octubre    2021.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
   <si>
     <t>REMISION</t>
   </si>
@@ -110,9 +110,6 @@
       </rPr>
       <t xml:space="preserve">       C L I E N T E S</t>
     </r>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t xml:space="preserve">COMERCIO   CENTRAL </t>
@@ -512,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -644,9 +641,6 @@
     <xf numFmtId="44" fontId="7" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -655,33 +649,41 @@
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1085,8 +1087,8 @@
   </sheetPr>
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1105,25 +1107,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="70"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -1161,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="14"/>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="63" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="15">
@@ -1184,7 +1186,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="64" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="20">
@@ -1206,7 +1208,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="64" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="20"/>
@@ -1218,90 +1220,130 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="23">
+        <v>44489</v>
+      </c>
       <c r="B7" s="13">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="D7" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="67">
+        <v>71124</v>
+      </c>
+      <c r="F7" s="77">
+        <v>44499</v>
+      </c>
+      <c r="G7" s="78">
+        <v>7124</v>
+      </c>
       <c r="H7" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>64000</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="12">
+        <v>44216</v>
+      </c>
       <c r="B8" s="13">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
+      <c r="D8" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="67">
+        <v>112811</v>
+      </c>
+      <c r="F8" s="77">
+        <v>44499</v>
+      </c>
+      <c r="G8" s="78">
+        <v>112811</v>
+      </c>
       <c r="H8" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="12">
+        <v>44489</v>
+      </c>
       <c r="B9" s="13">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
+      <c r="D9" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="67">
+        <v>23209</v>
+      </c>
+      <c r="F9" s="77">
+        <v>44499</v>
+      </c>
+      <c r="G9" s="78">
+        <v>23209</v>
+      </c>
       <c r="H9" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="12">
+        <v>44489</v>
+      </c>
       <c r="B10" s="13">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="D10" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="67">
+        <v>116229</v>
+      </c>
+      <c r="F10" s="77">
+        <v>44499</v>
+      </c>
+      <c r="G10" s="78">
+        <v>116229</v>
+      </c>
       <c r="H10" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="A11" s="12">
+        <v>44489</v>
+      </c>
       <c r="B11" s="13">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="22"/>
+      <c r="D11" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="67">
+        <v>4402</v>
+      </c>
+      <c r="F11" s="77">
+        <v>44499</v>
+      </c>
+      <c r="G11" s="78">
+        <v>4402</v>
+      </c>
       <c r="H11" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1317,16 +1359,20 @@
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="20">
         <v>4098</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
+      <c r="F12" s="77">
+        <v>44499</v>
+      </c>
+      <c r="G12" s="78">
+        <v>4098</v>
+      </c>
       <c r="H12" s="18">
         <f t="shared" si="0"/>
-        <v>4098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1339,16 +1385,20 @@
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" s="20">
         <v>8137</v>
       </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
+      <c r="F13" s="77">
+        <v>44499</v>
+      </c>
+      <c r="G13" s="78">
+        <v>8137</v>
+      </c>
       <c r="H13" s="18">
         <f t="shared" si="0"/>
-        <v>8137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1361,16 +1411,20 @@
       </c>
       <c r="C14" s="24"/>
       <c r="D14" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" s="20">
         <v>19763</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
+      <c r="F14" s="77">
+        <v>44499</v>
+      </c>
+      <c r="G14" s="78">
+        <v>19763</v>
+      </c>
       <c r="H14" s="18">
         <f t="shared" si="0"/>
-        <v>19763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1382,7 +1436,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="25"/>
-      <c r="D15" s="74" t="s">
+      <c r="D15" s="65" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="20">
@@ -1405,16 +1459,20 @@
       </c>
       <c r="C16" s="24"/>
       <c r="D16" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="20">
         <v>744</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
+      <c r="F16" s="77">
+        <v>44499</v>
+      </c>
+      <c r="G16" s="78">
+        <v>744</v>
+      </c>
       <c r="H16" s="18">
         <f t="shared" si="0"/>
-        <v>744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1427,16 +1485,20 @@
       </c>
       <c r="C17" s="25"/>
       <c r="D17" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E17" s="20">
         <v>73655</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22"/>
+      <c r="F17" s="77">
+        <v>44499</v>
+      </c>
+      <c r="G17" s="78">
+        <v>73655</v>
+      </c>
       <c r="H17" s="18">
         <f t="shared" si="0"/>
-        <v>73655</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1449,16 +1511,20 @@
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E18" s="20">
         <v>114940</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
+      <c r="F18" s="77">
+        <v>44499</v>
+      </c>
+      <c r="G18" s="78">
+        <v>114940</v>
+      </c>
       <c r="H18" s="18">
         <f t="shared" si="0"/>
-        <v>114940</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1471,11 +1537,17 @@
       </c>
       <c r="C19" s="25"/>
       <c r="D19" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
+        <v>14</v>
+      </c>
+      <c r="E19" s="20">
+        <v>122453</v>
+      </c>
+      <c r="F19" s="77">
+        <v>44499</v>
+      </c>
+      <c r="G19" s="78">
+        <v>122453</v>
+      </c>
       <c r="H19" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1491,7 +1563,7 @@
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="20">
         <v>1043</v>
@@ -1517,16 +1589,20 @@
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" s="20">
         <v>15830</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
+      <c r="F21" s="77">
+        <v>44499</v>
+      </c>
+      <c r="G21" s="78">
+        <v>15830</v>
+      </c>
       <c r="H21" s="18">
         <f t="shared" si="0"/>
-        <v>15830</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1539,16 +1615,20 @@
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="20">
         <v>28036</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
+      <c r="F22" s="77">
+        <v>44499</v>
+      </c>
+      <c r="G22" s="78">
+        <v>28036</v>
+      </c>
       <c r="H22" s="18">
         <f t="shared" si="0"/>
-        <v>28036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1561,16 +1641,20 @@
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" s="20">
         <v>136607</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
+      <c r="F23" s="77">
+        <v>44499</v>
+      </c>
+      <c r="G23" s="78">
+        <v>136607</v>
+      </c>
       <c r="H23" s="18">
         <f t="shared" si="0"/>
-        <v>136607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1583,16 +1667,20 @@
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24" s="20">
         <v>193754</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
+      <c r="F24" s="77">
+        <v>44499</v>
+      </c>
+      <c r="G24" s="78">
+        <v>193754</v>
+      </c>
       <c r="H24" s="18">
         <f t="shared" si="0"/>
-        <v>193754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1605,16 +1693,20 @@
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" s="20">
         <v>6555</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
+      <c r="F25" s="77">
+        <v>44499</v>
+      </c>
+      <c r="G25" s="78">
+        <v>6555</v>
+      </c>
       <c r="H25" s="18">
         <f t="shared" si="0"/>
-        <v>6555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1627,16 +1719,20 @@
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="20">
         <v>1058</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
+      <c r="F26" s="77">
+        <v>44499</v>
+      </c>
+      <c r="G26" s="78">
+        <v>1058</v>
+      </c>
       <c r="H26" s="18">
         <f t="shared" si="0"/>
-        <v>1058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1649,16 +1745,20 @@
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E27" s="20">
         <v>4129</v>
       </c>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
+      <c r="F27" s="77">
+        <v>44499</v>
+      </c>
+      <c r="G27" s="78">
+        <v>4129</v>
+      </c>
       <c r="H27" s="18">
         <f t="shared" si="0"/>
-        <v>4129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1671,16 +1771,20 @@
       </c>
       <c r="C28" s="24"/>
       <c r="D28" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" s="20">
         <v>10539</v>
       </c>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
+      <c r="F28" s="77">
+        <v>44499</v>
+      </c>
+      <c r="G28" s="78">
+        <v>10539</v>
+      </c>
       <c r="H28" s="18">
         <f t="shared" si="0"/>
-        <v>10539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1693,16 +1797,20 @@
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
+        <v>1141</v>
+      </c>
+      <c r="F29" s="21">
+        <v>44499</v>
+      </c>
+      <c r="G29" s="22">
+        <v>1141</v>
+      </c>
       <c r="H29" s="18">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1712,15 +1820,19 @@
         <v>27</v>
       </c>
       <c r="C30" s="24"/>
-      <c r="D30" s="75" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="76"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="D30" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="67"/>
+      <c r="F30" s="77">
+        <v>44499</v>
+      </c>
+      <c r="G30" s="78">
+        <v>2</v>
+      </c>
+      <c r="H30" s="79">
+        <f t="shared" si="0"/>
+        <v>-2</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1733,16 +1845,20 @@
       </c>
       <c r="C31" s="24"/>
       <c r="D31" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E31" s="20">
         <v>2820</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
+      <c r="F31" s="77">
+        <v>44499</v>
+      </c>
+      <c r="G31" s="78">
+        <v>2820</v>
+      </c>
       <c r="H31" s="18">
         <f t="shared" si="0"/>
-        <v>2820</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1755,45 +1871,69 @@
       </c>
       <c r="C32" s="24"/>
       <c r="D32" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E32" s="20">
         <v>1261</v>
       </c>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
+      <c r="F32" s="77">
+        <v>44499</v>
+      </c>
+      <c r="G32" s="78">
+        <v>1261</v>
+      </c>
       <c r="H32" s="18">
         <f t="shared" si="0"/>
-        <v>1261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+      <c r="A33" s="12">
+        <v>44497</v>
+      </c>
       <c r="B33" s="13">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
+      <c r="D33" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="20">
+        <v>3483</v>
+      </c>
+      <c r="F33" s="77">
+        <v>44499</v>
+      </c>
+      <c r="G33" s="78">
+        <v>3483</v>
+      </c>
       <c r="H33" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+      <c r="A34" s="12">
+        <v>44497</v>
+      </c>
       <c r="B34" s="13">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C34" s="27"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
+      <c r="D34" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="20">
+        <v>1715</v>
+      </c>
+      <c r="F34" s="77">
+        <v>44499</v>
+      </c>
+      <c r="G34" s="78">
+        <v>1715</v>
+      </c>
       <c r="H34" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3051,10 +3191,10 @@
       <c r="A113" s="23"/>
       <c r="B113" s="13"/>
       <c r="C113" s="24"/>
-      <c r="D113" s="60"/>
-      <c r="E113" s="61"/>
-      <c r="F113" s="62"/>
-      <c r="G113" s="63"/>
+      <c r="D113" s="59"/>
+      <c r="E113" s="60"/>
+      <c r="F113" s="61"/>
+      <c r="G113" s="62"/>
       <c r="H113" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3064,10 +3204,10 @@
       <c r="A114" s="23"/>
       <c r="B114" s="13"/>
       <c r="C114" s="24"/>
-      <c r="D114" s="60"/>
-      <c r="E114" s="61"/>
-      <c r="F114" s="62"/>
-      <c r="G114" s="63"/>
+      <c r="D114" s="59"/>
+      <c r="E114" s="60"/>
+      <c r="F114" s="61"/>
+      <c r="G114" s="62"/>
       <c r="H114" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3077,10 +3217,10 @@
       <c r="A115" s="23"/>
       <c r="B115" s="13"/>
       <c r="C115" s="24"/>
-      <c r="D115" s="60"/>
-      <c r="E115" s="61"/>
-      <c r="F115" s="62"/>
-      <c r="G115" s="63"/>
+      <c r="D115" s="59"/>
+      <c r="E115" s="60"/>
+      <c r="F115" s="61"/>
+      <c r="G115" s="62"/>
       <c r="H115" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3108,16 +3248,16 @@
       <c r="D117" s="2"/>
       <c r="E117" s="39">
         <f>SUM(E4:E116)</f>
-        <v>622970.5</v>
+        <v>1079536</v>
       </c>
       <c r="F117" s="39"/>
       <c r="G117" s="39">
         <f>SUM(G4:G116)</f>
-        <v>1043</v>
+        <v>1015538</v>
       </c>
       <c r="H117" s="40">
         <f>SUM(H4:H116)</f>
-        <v>621927.5</v>
+        <v>63998</v>
       </c>
       <c r="I117" s="2"/>
     </row>
@@ -3159,12 +3299,12 @@
       <c r="B121" s="37"/>
       <c r="C121" s="38"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="70">
+      <c r="E121" s="72">
         <f>E117-G117</f>
-        <v>621927.5</v>
-      </c>
-      <c r="F121" s="71"/>
-      <c r="G121" s="72"/>
+        <v>63998</v>
+      </c>
+      <c r="F121" s="73"/>
+      <c r="G121" s="74"/>
       <c r="I121" s="2"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -3180,11 +3320,11 @@
       <c r="B123" s="37"/>
       <c r="C123" s="38"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="73" t="s">
+      <c r="E123" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="F123" s="73"/>
-      <c r="G123" s="73"/>
+      <c r="F123" s="75"/>
+      <c r="G123" s="75"/>
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A    Octubre    2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A    Octubre    2021.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
   <si>
     <t>REMISION</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>XXXXXXXXXXXX</t>
+  </si>
+  <si>
+    <t>falta la rosa</t>
   </si>
 </sst>
 </file>
@@ -284,7 +287,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,6 +327,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9966FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,7 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -652,6 +661,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -676,14 +693,10 @@
     <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="7" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -693,6 +706,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9966FF"/>
       <color rgb="FFFF9900"/>
       <color rgb="FF0000FF"/>
     </mruColors>
@@ -1088,7 +1102,7 @@
   <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1107,25 +1121,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="70"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -1234,10 +1248,10 @@
       <c r="E7" s="67">
         <v>71124</v>
       </c>
-      <c r="F7" s="77">
+      <c r="F7" s="69">
         <v>44499</v>
       </c>
-      <c r="G7" s="78">
+      <c r="G7" s="70">
         <v>7124</v>
       </c>
       <c r="H7" s="18">
@@ -1254,16 +1268,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="68" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="67">
         <v>112811</v>
       </c>
-      <c r="F8" s="77">
+      <c r="F8" s="69">
         <v>44499</v>
       </c>
-      <c r="G8" s="78">
+      <c r="G8" s="70">
         <v>112811</v>
       </c>
       <c r="H8" s="18">
@@ -1286,10 +1300,10 @@
       <c r="E9" s="67">
         <v>23209</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="69">
         <v>44499</v>
       </c>
-      <c r="G9" s="78">
+      <c r="G9" s="70">
         <v>23209</v>
       </c>
       <c r="H9" s="18">
@@ -1312,10 +1326,10 @@
       <c r="E10" s="67">
         <v>116229</v>
       </c>
-      <c r="F10" s="77">
+      <c r="F10" s="69">
         <v>44499</v>
       </c>
-      <c r="G10" s="78">
+      <c r="G10" s="70">
         <v>116229</v>
       </c>
       <c r="H10" s="18">
@@ -1338,10 +1352,10 @@
       <c r="E11" s="67">
         <v>4402</v>
       </c>
-      <c r="F11" s="77">
+      <c r="F11" s="69">
         <v>44499</v>
       </c>
-      <c r="G11" s="78">
+      <c r="G11" s="70">
         <v>4402</v>
       </c>
       <c r="H11" s="18">
@@ -1364,10 +1378,10 @@
       <c r="E12" s="20">
         <v>4098</v>
       </c>
-      <c r="F12" s="77">
+      <c r="F12" s="69">
         <v>44499</v>
       </c>
-      <c r="G12" s="78">
+      <c r="G12" s="70">
         <v>4098</v>
       </c>
       <c r="H12" s="18">
@@ -1390,10 +1404,10 @@
       <c r="E13" s="20">
         <v>8137</v>
       </c>
-      <c r="F13" s="77">
+      <c r="F13" s="69">
         <v>44499</v>
       </c>
-      <c r="G13" s="78">
+      <c r="G13" s="70">
         <v>8137</v>
       </c>
       <c r="H13" s="18">
@@ -1416,10 +1430,10 @@
       <c r="E14" s="20">
         <v>19763</v>
       </c>
-      <c r="F14" s="77">
+      <c r="F14" s="69">
         <v>44499</v>
       </c>
-      <c r="G14" s="78">
+      <c r="G14" s="70">
         <v>19763</v>
       </c>
       <c r="H14" s="18">
@@ -1464,10 +1478,10 @@
       <c r="E16" s="20">
         <v>744</v>
       </c>
-      <c r="F16" s="77">
+      <c r="F16" s="69">
         <v>44499</v>
       </c>
-      <c r="G16" s="78">
+      <c r="G16" s="70">
         <v>744</v>
       </c>
       <c r="H16" s="18">
@@ -1490,10 +1504,10 @@
       <c r="E17" s="20">
         <v>73655</v>
       </c>
-      <c r="F17" s="77">
+      <c r="F17" s="69">
         <v>44499</v>
       </c>
-      <c r="G17" s="78">
+      <c r="G17" s="70">
         <v>73655</v>
       </c>
       <c r="H17" s="18">
@@ -1516,10 +1530,10 @@
       <c r="E18" s="20">
         <v>114940</v>
       </c>
-      <c r="F18" s="77">
+      <c r="F18" s="69">
         <v>44499</v>
       </c>
-      <c r="G18" s="78">
+      <c r="G18" s="70">
         <v>114940</v>
       </c>
       <c r="H18" s="18">
@@ -1542,10 +1556,10 @@
       <c r="E19" s="20">
         <v>122453</v>
       </c>
-      <c r="F19" s="77">
+      <c r="F19" s="69">
         <v>44499</v>
       </c>
-      <c r="G19" s="78">
+      <c r="G19" s="70">
         <v>122453</v>
       </c>
       <c r="H19" s="18">
@@ -1594,10 +1608,10 @@
       <c r="E21" s="20">
         <v>15830</v>
       </c>
-      <c r="F21" s="77">
+      <c r="F21" s="69">
         <v>44499</v>
       </c>
-      <c r="G21" s="78">
+      <c r="G21" s="70">
         <v>15830</v>
       </c>
       <c r="H21" s="18">
@@ -1620,10 +1634,10 @@
       <c r="E22" s="20">
         <v>28036</v>
       </c>
-      <c r="F22" s="77">
+      <c r="F22" s="69">
         <v>44499</v>
       </c>
-      <c r="G22" s="78">
+      <c r="G22" s="70">
         <v>28036</v>
       </c>
       <c r="H22" s="18">
@@ -1646,10 +1660,10 @@
       <c r="E23" s="20">
         <v>136607</v>
       </c>
-      <c r="F23" s="77">
+      <c r="F23" s="69">
         <v>44499</v>
       </c>
-      <c r="G23" s="78">
+      <c r="G23" s="70">
         <v>136607</v>
       </c>
       <c r="H23" s="18">
@@ -1672,10 +1686,10 @@
       <c r="E24" s="20">
         <v>193754</v>
       </c>
-      <c r="F24" s="77">
+      <c r="F24" s="69">
         <v>44499</v>
       </c>
-      <c r="G24" s="78">
+      <c r="G24" s="70">
         <v>193754</v>
       </c>
       <c r="H24" s="18">
@@ -1698,10 +1712,10 @@
       <c r="E25" s="20">
         <v>6555</v>
       </c>
-      <c r="F25" s="77">
+      <c r="F25" s="69">
         <v>44499</v>
       </c>
-      <c r="G25" s="78">
+      <c r="G25" s="70">
         <v>6555</v>
       </c>
       <c r="H25" s="18">
@@ -1724,10 +1738,10 @@
       <c r="E26" s="20">
         <v>1058</v>
       </c>
-      <c r="F26" s="77">
+      <c r="F26" s="69">
         <v>44499</v>
       </c>
-      <c r="G26" s="78">
+      <c r="G26" s="70">
         <v>1058</v>
       </c>
       <c r="H26" s="18">
@@ -1750,10 +1764,10 @@
       <c r="E27" s="20">
         <v>4129</v>
       </c>
-      <c r="F27" s="77">
+      <c r="F27" s="69">
         <v>44499</v>
       </c>
-      <c r="G27" s="78">
+      <c r="G27" s="70">
         <v>4129</v>
       </c>
       <c r="H27" s="18">
@@ -1776,10 +1790,10 @@
       <c r="E28" s="20">
         <v>10539</v>
       </c>
-      <c r="F28" s="77">
+      <c r="F28" s="69">
         <v>44499</v>
       </c>
-      <c r="G28" s="78">
+      <c r="G28" s="70">
         <v>10539</v>
       </c>
       <c r="H28" s="18">
@@ -1824,13 +1838,13 @@
         <v>15</v>
       </c>
       <c r="E30" s="67"/>
-      <c r="F30" s="77">
+      <c r="F30" s="69">
         <v>44499</v>
       </c>
-      <c r="G30" s="78">
+      <c r="G30" s="70">
         <v>2</v>
       </c>
-      <c r="H30" s="79">
+      <c r="H30" s="71">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
@@ -1850,10 +1864,10 @@
       <c r="E31" s="20">
         <v>2820</v>
       </c>
-      <c r="F31" s="77">
+      <c r="F31" s="69">
         <v>44499</v>
       </c>
-      <c r="G31" s="78">
+      <c r="G31" s="70">
         <v>2820</v>
       </c>
       <c r="H31" s="18">
@@ -1876,10 +1890,10 @@
       <c r="E32" s="20">
         <v>1261</v>
       </c>
-      <c r="F32" s="77">
+      <c r="F32" s="69">
         <v>44499</v>
       </c>
-      <c r="G32" s="78">
+      <c r="G32" s="70">
         <v>1261</v>
       </c>
       <c r="H32" s="18">
@@ -1902,10 +1916,10 @@
       <c r="E33" s="20">
         <v>3483</v>
       </c>
-      <c r="F33" s="77">
+      <c r="F33" s="69">
         <v>44499</v>
       </c>
-      <c r="G33" s="78">
+      <c r="G33" s="70">
         <v>3483</v>
       </c>
       <c r="H33" s="18">
@@ -1928,10 +1942,10 @@
       <c r="E34" s="20">
         <v>1715</v>
       </c>
-      <c r="F34" s="77">
+      <c r="F34" s="69">
         <v>44499</v>
       </c>
-      <c r="G34" s="78">
+      <c r="G34" s="70">
         <v>1715</v>
       </c>
       <c r="H34" s="18">
@@ -1940,83 +1954,115 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+      <c r="A35" s="12">
+        <v>44498</v>
+      </c>
       <c r="B35" s="13">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="C35" s="28"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
+      <c r="D35" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="20">
+        <v>2515</v>
+      </c>
       <c r="F35" s="21"/>
       <c r="G35" s="22"/>
       <c r="H35" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+      <c r="A36" s="12">
+        <v>44499</v>
+      </c>
       <c r="B36" s="13">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="C36" s="24"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
+      <c r="D36" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="20">
+        <v>340</v>
+      </c>
       <c r="F36" s="21"/>
       <c r="G36" s="22"/>
       <c r="H36" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+      <c r="A37" s="12">
+        <v>44499</v>
+      </c>
       <c r="B37" s="13">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="C37" s="24"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
+      <c r="D37" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="20">
+        <v>15657</v>
+      </c>
       <c r="F37" s="21"/>
       <c r="G37" s="22"/>
       <c r="H37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15657</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
+      <c r="A38" s="12">
+        <v>44500</v>
+      </c>
       <c r="B38" s="13">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C38" s="24"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="22"/>
+      <c r="D38" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="20">
+        <v>0</v>
+      </c>
+      <c r="F38" s="80" t="s">
+        <v>16</v>
+      </c>
+      <c r="G38" s="81"/>
       <c r="H38" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
+      <c r="A39" s="12">
+        <v>44500</v>
+      </c>
       <c r="B39" s="13">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C39" s="24"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="20"/>
+      <c r="D39" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="20">
+        <v>8585</v>
+      </c>
       <c r="F39" s="21"/>
       <c r="G39" s="22"/>
       <c r="H39" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8585</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3248,7 +3294,7 @@
       <c r="D117" s="2"/>
       <c r="E117" s="39">
         <f>SUM(E4:E116)</f>
-        <v>1079536</v>
+        <v>1106633</v>
       </c>
       <c r="F117" s="39"/>
       <c r="G117" s="39">
@@ -3257,7 +3303,7 @@
       </c>
       <c r="H117" s="40">
         <f>SUM(H4:H116)</f>
-        <v>63998</v>
+        <v>91095</v>
       </c>
       <c r="I117" s="2"/>
     </row>
@@ -3299,12 +3345,12 @@
       <c r="B121" s="37"/>
       <c r="C121" s="38"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="72">
+      <c r="E121" s="76">
         <f>E117-G117</f>
-        <v>63998</v>
-      </c>
-      <c r="F121" s="73"/>
-      <c r="G121" s="74"/>
+        <v>91095</v>
+      </c>
+      <c r="F121" s="77"/>
+      <c r="G121" s="78"/>
       <c r="I121" s="2"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -3320,11 +3366,11 @@
       <c r="B123" s="37"/>
       <c r="C123" s="38"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="75" t="s">
+      <c r="E123" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="F123" s="75"/>
-      <c r="G123" s="75"/>
+      <c r="F123" s="79"/>
+      <c r="G123" s="79"/>
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A    Octubre    2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A    Octubre    2021.xlsx
@@ -669,6 +669,10 @@
     </xf>
     <xf numFmtId="44" fontId="7" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -693,10 +697,6 @@
     <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="8" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -1102,7 +1102,7 @@
   <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1121,25 +1121,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="76"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -2034,10 +2034,10 @@
       <c r="E38" s="20">
         <v>0</v>
       </c>
-      <c r="F38" s="80" t="s">
+      <c r="F38" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="81"/>
+      <c r="G38" s="73"/>
       <c r="H38" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3345,12 +3345,12 @@
       <c r="B121" s="37"/>
       <c r="C121" s="38"/>
       <c r="D121" s="2"/>
-      <c r="E121" s="76">
+      <c r="E121" s="78">
         <f>E117-G117</f>
         <v>91095</v>
       </c>
-      <c r="F121" s="77"/>
-      <c r="G121" s="78"/>
+      <c r="F121" s="79"/>
+      <c r="G121" s="80"/>
       <c r="I121" s="2"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -3366,11 +3366,11 @@
       <c r="B123" s="37"/>
       <c r="C123" s="38"/>
       <c r="D123" s="2"/>
-      <c r="E123" s="79" t="s">
+      <c r="E123" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="F123" s="79"/>
-      <c r="G123" s="79"/>
+      <c r="F123" s="81"/>
+      <c r="G123" s="81"/>
       <c r="I123" s="2"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A    Octubre    2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 1/CENTRAL # 10  OCTUBRE 2021/CREDITOS  4 CARNES   Z A V A L E T A    Octubre    2021.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="18">
   <si>
     <t>REMISION</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>falta la rosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1101,8 +1104,8 @@
   </sheetPr>
   <dimension ref="A1:I134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1201,7 +1204,7 @@
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="64" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E5" s="20">
         <v>0</v>
@@ -2066,83 +2069,113 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
+      <c r="A40" s="12">
+        <v>44501</v>
+      </c>
       <c r="B40" s="13">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="C40" s="24"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="20"/>
+      <c r="D40" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="20">
+        <v>259</v>
+      </c>
       <c r="F40" s="21"/>
       <c r="G40" s="22"/>
       <c r="H40" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
+      <c r="A41" s="12">
+        <v>44502</v>
+      </c>
       <c r="B41" s="13">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="C41" s="24"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="20"/>
+      <c r="D41" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="20">
+        <v>8605</v>
+      </c>
       <c r="F41" s="21"/>
       <c r="G41" s="22"/>
       <c r="H41" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8605</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
+      <c r="A42" s="12">
+        <v>44503</v>
+      </c>
       <c r="B42" s="13">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="C42" s="24"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="20"/>
+      <c r="D42" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="20">
+        <v>235</v>
+      </c>
       <c r="F42" s="21"/>
       <c r="G42" s="22"/>
       <c r="H42" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
+      <c r="A43" s="12">
+        <v>44505</v>
+      </c>
       <c r="B43" s="13">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="C43" s="24"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20"/>
+      <c r="D43" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="20">
+        <v>1618</v>
+      </c>
       <c r="F43" s="21"/>
       <c r="G43" s="22"/>
       <c r="H43" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
+      <c r="A44" s="12">
+        <v>44505</v>
+      </c>
       <c r="B44" s="13">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="C44" s="24"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="20"/>
+      <c r="D44" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="20">
+        <v>784</v>
+      </c>
       <c r="F44" s="21"/>
       <c r="G44" s="22"/>
       <c r="H44" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>784</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3294,7 +3327,7 @@
       <c r="D117" s="2"/>
       <c r="E117" s="39">
         <f>SUM(E4:E116)</f>
-        <v>1106633</v>
+        <v>1118134</v>
       </c>
       <c r="F117" s="39"/>
       <c r="G117" s="39">
@@ -3303,7 +3336,7 @@
       </c>
       <c r="H117" s="40">
         <f>SUM(H4:H116)</f>
-        <v>91095</v>
+        <v>102596</v>
       </c>
       <c r="I117" s="2"/>
     </row>
@@ -3347,7 +3380,7 @@
       <c r="D121" s="2"/>
       <c r="E121" s="78">
         <f>E117-G117</f>
-        <v>91095</v>
+        <v>102596</v>
       </c>
       <c r="F121" s="79"/>
       <c r="G121" s="80"/>
